--- a/src/assets/abbv-vs-sp500-returns.xlsx
+++ b/src/assets/abbv-vs-sp500-returns.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fiverr\ex-machina\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5DC68A9-B05A-4B6C-9B60-3C53C681C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -409,21 +408,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -432,21 +431,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>41306</v>
       </c>
@@ -457,7 +456,7 @@
         <v>1.106064876504154E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>41334</v>
       </c>
@@ -468,7 +467,7 @@
         <v>3.5987723982872977E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>41365</v>
       </c>
@@ -479,7 +478,7 @@
         <v>1.808576777989002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>41395</v>
       </c>
@@ -490,7 +489,7 @@
         <v>2.0762811683057821E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>41426</v>
       </c>
@@ -501,7 +500,7 @@
         <v>-1.4999301595580831E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>41456</v>
       </c>
@@ -512,7 +511,7 @@
         <v>4.9462079913085377E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>41487</v>
       </c>
@@ -523,7 +522,7 @@
         <v>-3.1298019479343957E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>41518</v>
       </c>
@@ -535,7 +534,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>41548</v>
       </c>
@@ -547,7 +546,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>41579</v>
       </c>
@@ -558,7 +557,7 @@
         <v>2.8049471367328719E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>41609</v>
       </c>
@@ -569,7 +568,7 @@
         <v>2.356279197544597E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>41640</v>
       </c>
@@ -580,7 +579,7 @@
         <v>-3.5582905955811588E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>41671</v>
       </c>
@@ -591,7 +590,7 @@
         <v>4.3117030178161597E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>41699</v>
       </c>
@@ -602,7 +601,7 @@
         <v>6.9321654182270542E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>41730</v>
       </c>
@@ -613,7 +612,7 @@
         <v>6.2007891534141546E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>41760</v>
       </c>
@@ -624,7 +623,7 @@
         <v>2.103028007328045E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>41791</v>
       </c>
@@ -635,7 +634,7 @@
         <v>1.905833174947014E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>41821</v>
       </c>
@@ -646,7 +645,7 @@
         <v>-1.507983084534237E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>41852</v>
       </c>
@@ -657,7 +656,7 @@
         <v>3.7655295579825283E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>41883</v>
       </c>
@@ -668,7 +667,7 @@
         <v>-1.551383724945399E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>41913</v>
       </c>
@@ -679,7 +678,7 @@
         <v>2.3201460667203081E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>41944</v>
       </c>
@@ -690,7 +689,7 @@
         <v>2.4533588646314941E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>41974</v>
       </c>
@@ -701,7 +700,7 @@
         <v>-4.1885875159970443E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42005</v>
       </c>
@@ -712,7 +711,7 @@
         <v>-3.104080583841062E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42036</v>
       </c>
@@ -723,7 +722,7 @@
         <v>5.4892510890623303E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42064</v>
       </c>
@@ -734,7 +733,7 @@
         <v>-1.7396107114219569E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42095</v>
       </c>
@@ -745,7 +744,7 @@
         <v>8.5208198225352749E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42125</v>
       </c>
@@ -756,7 +755,7 @@
         <v>1.049138230458979E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42156</v>
       </c>
@@ -767,7 +766,7 @@
         <v>-2.101167197972997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42186</v>
       </c>
@@ -778,7 +777,7 @@
         <v>1.9742029435184879E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42217</v>
       </c>
@@ -789,7 +788,7 @@
         <v>-6.2580818255865589E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42248</v>
       </c>
@@ -800,7 +799,7 @@
         <v>-2.644283128000147E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42278</v>
       </c>
@@ -811,7 +810,7 @@
         <v>8.298311781266654E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42309</v>
       </c>
@@ -822,7 +821,7 @@
         <v>5.0486911033487125E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>42339</v>
       </c>
@@ -833,7 +832,7 @@
         <v>-1.753018503269255E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>42370</v>
       </c>
@@ -844,7 +843,7 @@
         <v>-5.0735322046952303E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>42401</v>
       </c>
@@ -855,7 +854,7 @@
         <v>-4.1283603090035434E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>42430</v>
       </c>
@@ -866,7 +865,7 @@
         <v>6.5991114440058452E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42461</v>
       </c>
@@ -877,7 +876,7 @@
         <v>2.699398283332544E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42491</v>
       </c>
@@ -888,7 +887,7 @@
         <v>1.5324602525288439E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42522</v>
       </c>
@@ -899,7 +898,7 @@
         <v>9.1092124012437381E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42552</v>
       </c>
@@ -910,7 +909,7 @@
         <v>3.5609800753315428E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>42583</v>
       </c>
@@ -921,7 +920,7 @@
         <v>-1.2192428990193129E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>42614</v>
       </c>
@@ -932,7 +931,7 @@
         <v>-1.234451139317305E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>42644</v>
       </c>
@@ -943,7 +942,7 @@
         <v>-1.9425678909034461E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>42675</v>
       </c>
@@ -954,7 +953,7 @@
         <v>3.4174521829295028E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>42705</v>
       </c>
@@ -965,7 +964,7 @@
         <v>1.8200762441865859E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42736</v>
       </c>
@@ -976,7 +975,7 @@
         <v>1.7884358198382522E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>42767</v>
       </c>
@@ -987,7 +986,7 @@
         <v>3.719816006681631E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>42795</v>
       </c>
@@ -998,7 +997,7 @@
         <v>-3.8919713526941457E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>42826</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>9.0912087488546067E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>42856</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>1.157625124632866E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>42887</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>4.8137752078125651E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>42917</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>1.9348826001101879E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>42948</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>5.46433019853243E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>42979</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>1.9302978562167668E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>43009</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>2.2188135066151249E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43040</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>2.8082627806563339E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43070</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>9.8316305942705018E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43101</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>5.6178704125528167E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>43132</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>-3.8947371879367698E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>43160</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>-2.6884498600556639E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>43191</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>2.7187749953683231E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>43221</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>2.1608341854583601E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>43252</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>4.8424362676078303E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>43282</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>3.602155617289915E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>43313</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>3.0263211276748251E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>43344</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>4.2942874264617634E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>43374</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>-6.94033560936963E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>43405</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>1.7859356654779779E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>43435</v>
       </c>
@@ -1229,7 +1228,7 @@
         <v>-9.177689467997252E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>43466</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>7.8684401665826131E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>43497</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>2.9728889343927149E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>43525</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>1.7924256249588488E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>43556</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>3.9313498313737982E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>43586</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>-6.5777731366835401E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>43617</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>6.8930163998240701E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>43647</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>1.312815216695795E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>43678</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>-1.809162724052393E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>43709</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>1.71811779310207E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>43739</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>2.0431770513684059E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>43770</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>3.4047037714499913E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>43800</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>2.8589818905730091E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>43831</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>-1.628092819048965E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>43862</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>-8.4110483638403122E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>43891</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>-0.1251192824089282</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>43922</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>0.12684403816527889</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>43952</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>4.5281819665558221E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>43983</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>1.838839651392421E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>44013</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>5.5101321480443673E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>44044</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>7.0064666901717754E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>44075</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>-3.9227970178423062E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>44105</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>-2.7665786221379721E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>44136</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>0.1075456354438591</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>44166</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>3.7121459093570008E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>44197</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>-1.113666075544517E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>44228</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>2.609145137744839E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>44256</v>
       </c>
@@ -1526,7 +1525,7 @@
         <v>4.2438632533165148E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>44287</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>5.2425321347558507E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>44317</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>5.4864886706069704E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>44348</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>2.221400956583475E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>44378</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>2.2748054828388709E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>44409</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>2.899041625543863E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>44440</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>-4.7569168801901103E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>44470</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>6.9143836400606506E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>44501</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>-8.3337061847461591E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>44531</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>4.3612913462064862E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>44562</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>-5.2585165027393847E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>44593</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>-3.1360491945908293E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>44621</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>3.5773288371546252E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>44652</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>-8.7956711804343057E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>44682</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>5.3177704644635782E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>44713</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>-8.3919999933826817E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>44743</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>9.1116391730210022E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>44774</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>-4.2440128272998368E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44805</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>-9.3395672013274367E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>44835</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>7.9863413837008901E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>44866</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>5.3752893352493107E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>44896</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>-5.8971474074730468E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>44927</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>6.1752857834679098E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>44958</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>-2.6112493931818581E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44986</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>3.5051612577108981E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>45017</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>1.4642341662481019E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>45047</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>2.482347368192972E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>45078</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>6.4727464904234644E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>45108</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>3.1138932355010859E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>45139</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>-1.7716390070854019E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>45170</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>-4.8719367465624892E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>45200</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>-2.197968873798295E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>45231</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>8.9179268781970134E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>45261</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>4.4229231156360127E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>45292</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>1.5895707598991619E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>45323</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>5.1720640623723169E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>45352</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>3.1018779915342961E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>45383</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>-4.161507173789869E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>45413</v>
       </c>
@@ -1944,7 +1943,7 @@
         <v>4.80211901511991E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>45444</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>3.4669801283083279E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>45474</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>1.132131688786875E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>45505</v>
       </c>
@@ -1977,7 +1976,7 @@
         <v>2.283470693663037E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>45536</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>2.0196884090601271E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>45566</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>-9.8967433031517116E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>45597</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>5.7301295482098842E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>45627</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>-2.4990137048483629E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>45658</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>2.70163042404441E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>45689</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>-1.424209269982513E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>45717</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>-5.7544697681375379E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>45748</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>-7.6249433462898253E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>45778</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>6.1523826140782889E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>45809</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>4.9606839467715817E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>45839</v>
       </c>
